--- a/Planilhas/População SEXO NACIONAL.xlsx
+++ b/Planilhas/População SEXO NACIONAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id_produto</t>
+          <t>Categoria</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Categoria</t>
+          <t>População</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>População</t>
+          <t>unidade</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>unidade</t>
+          <t>ano</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ano</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Trimestre</t>
         </is>
@@ -488,30 +483,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>96535</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96535</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="G2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -528,30 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>96738</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96738</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="G3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -568,30 +549,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>96941</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96941</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="G4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -608,30 +582,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>97144</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97144</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="G5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -648,30 +615,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>97347</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97347</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="G6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,30 +648,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>97550</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97550</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="G7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -728,30 +681,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>97753</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97753</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="G8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -768,30 +714,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>97956</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97956</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="G9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -808,30 +747,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>98159</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98159</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="G10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -848,30 +780,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>98362</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98362</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="G11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -888,30 +813,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>98564</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98564</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="G12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -928,30 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>98767</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>98767</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="G13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -968,30 +879,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>98970</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>98970</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="G14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,30 +912,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>99172</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99172</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="G15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1048,30 +945,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>99374</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>99374</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="G16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1088,30 +978,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>99575</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>99575</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="G17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1128,30 +1011,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>99776</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>99776</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="G18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,30 +1044,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>99976</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>99976</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="G19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1208,30 +1077,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>100176</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100176</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="G20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1248,30 +1110,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>100375</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="G21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1288,30 +1143,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>100574</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>100574</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,30 +1176,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>100773</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>100773</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="G23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1368,30 +1209,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>100971</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>100971</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="G24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1408,30 +1242,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>101168</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>101168</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="G25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1448,30 +1275,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>101365</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>101365</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="G26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1488,30 +1308,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>101561</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>101561</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="G27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1528,30 +1341,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>101756</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>101756</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="G28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1568,30 +1374,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>101951</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>101951</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="G29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1608,30 +1407,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>102144</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>102144</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="G30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1648,30 +1440,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>102337</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>102337</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="G31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1688,30 +1473,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>102529</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>102529</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="G32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1728,30 +1506,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>102719</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>102719</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="G33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1768,30 +1539,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>102908</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>102908</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="G34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1808,30 +1572,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>104559</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>104559</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="G35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1848,30 +1605,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>104735</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>104735</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="G36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1888,30 +1638,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>104910</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>104910</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="G37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1928,30 +1671,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>105084</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>105084</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="G38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1968,30 +1704,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>105256</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>105256</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="G39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2008,30 +1737,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
+          <t>Homens</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>105426</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>105426</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="G40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2048,30 +1770,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>100539</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>100539</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="G41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,30 +1803,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>100765</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>100765</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="G42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2128,30 +1836,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>100990</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>100990</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="G43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2168,30 +1869,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>101216</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>101216</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
           <t>01/01/2012</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="G44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2208,30 +1902,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>101442</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>101442</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="G45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2248,30 +1935,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>101668</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>101668</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="G46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2288,30 +1968,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>101893</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>101893</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="G47" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2328,30 +2001,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>102118</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>102118</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
           <t>01/01/2013</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="G48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2368,30 +2034,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>102343</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>102343</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="G49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,30 +2067,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>102568</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>102568</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="G50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2448,30 +2100,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>102792</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>102792</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="G51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2488,30 +2133,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>103016</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>103016</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
           <t>01/01/2014</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="G52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2528,30 +2166,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>103239</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>103239</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="G53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,30 +2199,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>103462</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>103462</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="G54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2608,30 +2232,23 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>103684</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>103684</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="G55" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2648,30 +2265,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>103907</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>103907</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
           <t>01/01/2015</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="G56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2688,30 +2298,23 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>104128</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>104128</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="G57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,30 +2331,23 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>104349</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>104349</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="G58" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2768,30 +2364,23 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>104570</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>104570</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="G59" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2808,30 +2397,23 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>104790</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>104790</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
           <t>01/01/2016</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="G60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2848,30 +2430,23 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>105009</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>105009</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="G61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,30 +2463,23 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>105227</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>105227</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="G62" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2928,30 +2496,23 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>105444</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>105444</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="G63" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2968,30 +2529,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>105661</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>105661</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
           <t>01/01/2017</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="G64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3008,30 +2562,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>105876</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>105876</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="G65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,30 +2595,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>106090</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>106090</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="G66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3088,30 +2628,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>106304</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>106304</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="G67" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3128,30 +2661,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>106517</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>106517</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
           <t>01/01/2018</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="G68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3168,30 +2694,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>106729</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>106729</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="G69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,30 +2727,23 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>106940</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>106940</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="G70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3248,30 +2760,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>107149</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>107149</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="G71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3288,30 +2793,23 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>107358</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>107358</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
           <t>01/01/2019</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="G72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3328,30 +2826,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>107566</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>107566</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="G73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,30 +2859,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>109381</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>109381</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="H74" t="n">
+      <c r="G74" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3408,30 +2892,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>109576</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>109576</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="H75" t="n">
+      <c r="G75" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3448,30 +2925,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>109770</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>109770</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="G76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3488,30 +2958,23 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>109962</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>109962</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="H77" t="n">
+      <c r="G77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,30 +2991,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>110152</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>110152</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="G78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3568,30 +3024,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
+          <t>Mulheres</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>110341</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>110341</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="H79" t="n">
+      <c r="G79" t="n">
         <v>3</v>
       </c>
     </row>
